--- a/scripts/EPCTemplate.xlsx
+++ b/scripts/EPCTemplate.xlsx
@@ -876,137 +876,137 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1352,7 +1352,7 @@
     <col min="3" max="3" width="14.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="17" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.375" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
@@ -1367,10 +1367,10 @@
       <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="6" t="s">
         <v>58</v>
       </c>
@@ -1378,177 +1378,177 @@
       <c r="F2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>93.622758155920593</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>0.92</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>97.676236806671582</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>98.694914830841313</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>0.995</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>99.840439111564976</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>0.98499999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>92.716530327473421</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0.91</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>98.632313324583819</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>85.316846986089644</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>85.745564752314763</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>0.85</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>97.391223904529895</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>0.95</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6"/>
@@ -1556,19 +1556,19 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>97.391223904529895</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>0.99</v>
       </c>
       <c r="F10" s="6"/>
@@ -1576,19 +1576,19 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>99.910969290878469</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>0.999</v>
       </c>
       <c r="F11" s="6"/>
@@ -1596,19 +1596,19 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>99.495560095051488</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>0.99</v>
       </c>
       <c r="F12" s="6"/>
@@ -1616,19 +1616,19 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>99.286831995619337</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>0.99</v>
       </c>
       <c r="F13" s="6"/>
@@ -1636,19 +1636,19 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>99.8018162718204</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>0.95</v>
       </c>
       <c r="F14" s="6"/>
@@ -1656,19 +1656,19 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>98.121645060789646</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>0.95</v>
       </c>
       <c r="F15" s="6"/>
@@ -1676,19 +1676,19 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>99.354524015989497</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>0.99</v>
       </c>
       <c r="F16" s="6"/>
@@ -1696,19 +1696,19 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>95.892438819226911</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>0.95</v>
       </c>
       <c r="F17" s="6"/>
@@ -1716,37 +1716,37 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <v>5511048.0333333332</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>13.663580246913581</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="6"/>
@@ -1754,19 +1754,19 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>5.9367816091954024</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="6"/>
@@ -1798,7 +1798,7 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
@@ -1823,301 +1823,301 @@
       <c r="B2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="44">
         <v>1</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="39">
         <v>0.98</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="44">
         <v>1</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="46">
         <v>0.98</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="33">
         <v>442431</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>14420</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="48">
         <v>100000</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="34">
         <v>99.597029099121926</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>0.95</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="34">
         <v>99.920792079207914</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>0.99</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>95.367669573638281</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>0.9</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="34"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="34">
         <v>99.956015013093179</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>0.999</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="34">
         <v>100</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>1</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>6924001</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="34"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="34">
         <v>8207.1240830485021</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="34"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="34">
         <v>12.65</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="35">
         <v>3.3125</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="2"/>
     </row>
   </sheetData>
